--- a/TestReport/TestPoint.xlsx
+++ b/TestReport/TestPoint.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="32">
   <si>
     <t>CaseNumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,31 +122,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>BatchAdd_RoomType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomTypeName1,weekdayPrice,OTARoomTypeName,OTARoomTypeId,RoomNumber1_1,RoomNumber1_2,RoomTypeName2,RoomNumber2_1,RoomNumber2_2,CaseNumber,url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置条件：删除所有房型和房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相同房型，新增房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复新增已存在房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>批量新增房型和房间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BatchAdd_RoomType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoomTypeName1,weekdayPrice,OTARoomTypeName,OTARoomTypeId,RoomNumber1_1,RoomNumber1_2,RoomTypeName2,RoomNumber2_1,RoomNumber2_2,CaseNumber,url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前置条件：删除所有房型和房间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相同房型，新增房间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复新增已存在房间</t>
+    <t>重复批量新增房型和房间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -560,7 +564,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -740,7 +744,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -754,7 +758,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -807,19 +811,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="E24" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/TestReport/TestPoint.xlsx
+++ b/TestReport/TestPoint.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="36">
   <si>
     <t>CaseNumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +151,22 @@
   </si>
   <si>
     <t>重复批量新增房型和房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCS005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增房型和房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办理预定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order_Checkin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -840,6 +856,31 @@
         <v>11</v>
       </c>
     </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestReport/TestPoint.xlsx
+++ b/TestReport/TestPoint.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="41">
   <si>
     <t>CaseNumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,6 +167,26 @@
   </si>
   <si>
     <t>Order_Checkin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Action,CreditTypeValue,CreditTypeName,Channel_K,Channel_V ,RoomNumber ,RoomTypeId,url </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除新增房型和房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消预定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCS006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>另外一家酒店重复批量新增房型和房间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,16 +567,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="72.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
@@ -873,12 +893,108 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>34</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
